--- a/datasheets/multiset/recursions_ms_raw_0.xlsx
+++ b/datasheets/multiset/recursions_ms_raw_0.xlsx
@@ -484,13 +484,13 @@
         <v>8192</v>
       </c>
       <c r="E2" t="n">
-        <v>6787</v>
+        <v>8192</v>
       </c>
       <c r="F2" t="n">
-        <v>6380</v>
+        <v>5929</v>
       </c>
       <c r="G2" t="n">
-        <v>1982</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>8192</v>
       </c>
       <c r="D3" t="n">
-        <v>8199</v>
+        <v>8192</v>
       </c>
       <c r="E3" t="n">
-        <v>7240</v>
+        <v>8198</v>
       </c>
       <c r="F3" t="n">
-        <v>6129</v>
+        <v>6109</v>
       </c>
       <c r="G3" t="n">
-        <v>1527</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         <v>8192</v>
       </c>
       <c r="D4" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E4" t="n">
-        <v>7347</v>
+        <v>7876</v>
       </c>
       <c r="F4" t="n">
-        <v>4087</v>
+        <v>4076</v>
       </c>
       <c r="G4" t="n">
-        <v>1993</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E5" t="n">
-        <v>8200</v>
+        <v>8071</v>
       </c>
       <c r="F5" t="n">
-        <v>6726</v>
+        <v>6304</v>
       </c>
       <c r="G5" t="n">
-        <v>3186</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>8192</v>
+        <v>7162</v>
       </c>
       <c r="E6" t="n">
         <v>8192</v>
       </c>
       <c r="F6" t="n">
-        <v>5884</v>
+        <v>4033</v>
       </c>
       <c r="G6" t="n">
-        <v>1784</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="7">
@@ -599,13 +599,13 @@
         <v>8192</v>
       </c>
       <c r="E7" t="n">
-        <v>7672</v>
+        <v>8211</v>
       </c>
       <c r="F7" t="n">
-        <v>5879</v>
+        <v>5994</v>
       </c>
       <c r="G7" t="n">
-        <v>900</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="8">
@@ -619,16 +619,16 @@
         <v>8192</v>
       </c>
       <c r="D8" t="n">
-        <v>7687</v>
+        <v>8192</v>
       </c>
       <c r="E8" t="n">
         <v>8192</v>
       </c>
       <c r="F8" t="n">
-        <v>6250</v>
+        <v>6367</v>
       </c>
       <c r="G8" t="n">
-        <v>992</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="9">
@@ -642,16 +642,16 @@
         <v>8192</v>
       </c>
       <c r="D9" t="n">
-        <v>8154</v>
+        <v>8192</v>
       </c>
       <c r="E9" t="n">
-        <v>8192</v>
+        <v>7293</v>
       </c>
       <c r="F9" t="n">
-        <v>5881</v>
+        <v>4093</v>
       </c>
       <c r="G9" t="n">
-        <v>1773</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="10">
@@ -665,16 +665,16 @@
         <v>8192</v>
       </c>
       <c r="D10" t="n">
-        <v>7428</v>
+        <v>8200</v>
       </c>
       <c r="E10" t="n">
-        <v>8208</v>
+        <v>7593</v>
       </c>
       <c r="F10" t="n">
-        <v>6385</v>
+        <v>6128</v>
       </c>
       <c r="G10" t="n">
-        <v>1905</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="11">
@@ -688,16 +688,16 @@
         <v>8192</v>
       </c>
       <c r="D11" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E11" t="n">
-        <v>8206</v>
+        <v>7576</v>
       </c>
       <c r="F11" t="n">
-        <v>3836</v>
+        <v>6063</v>
       </c>
       <c r="G11" t="n">
-        <v>1890</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12">
@@ -711,16 +711,16 @@
         <v>8192</v>
       </c>
       <c r="D12" t="n">
-        <v>8210</v>
+        <v>8192</v>
       </c>
       <c r="E12" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F12" t="n">
-        <v>6351</v>
+        <v>6111</v>
       </c>
       <c r="G12" t="n">
-        <v>1024</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>8192</v>
       </c>
       <c r="E13" t="n">
-        <v>8006</v>
+        <v>8192</v>
       </c>
       <c r="F13" t="n">
-        <v>8251</v>
+        <v>8265</v>
       </c>
       <c r="G13" t="n">
-        <v>1886</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="14">
@@ -757,16 +757,16 @@
         <v>8192</v>
       </c>
       <c r="D14" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E14" t="n">
-        <v>7626</v>
+        <v>8192</v>
       </c>
       <c r="F14" t="n">
-        <v>6533</v>
+        <v>6065</v>
       </c>
       <c r="G14" t="n">
-        <v>1022</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="15">
@@ -780,16 +780,16 @@
         <v>8192</v>
       </c>
       <c r="D15" t="n">
-        <v>7045</v>
+        <v>8192</v>
       </c>
       <c r="E15" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="F15" t="n">
-        <v>5861</v>
+        <v>3959</v>
       </c>
       <c r="G15" t="n">
-        <v>2822</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="16">
@@ -806,13 +806,13 @@
         <v>8192</v>
       </c>
       <c r="E16" t="n">
-        <v>8221</v>
+        <v>8192</v>
       </c>
       <c r="F16" t="n">
-        <v>6162</v>
+        <v>6016</v>
       </c>
       <c r="G16" t="n">
-        <v>1977</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="17">
@@ -826,16 +826,16 @@
         <v>8192</v>
       </c>
       <c r="D17" t="n">
-        <v>8198</v>
+        <v>7586</v>
       </c>
       <c r="E17" t="n">
         <v>8192</v>
       </c>
       <c r="F17" t="n">
-        <v>6106</v>
+        <v>6058</v>
       </c>
       <c r="G17" t="n">
-        <v>1010</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="18">
@@ -849,16 +849,16 @@
         <v>8192</v>
       </c>
       <c r="D18" t="n">
-        <v>6340</v>
+        <v>8196</v>
       </c>
       <c r="E18" t="n">
-        <v>8192</v>
+        <v>7506</v>
       </c>
       <c r="F18" t="n">
-        <v>6111</v>
+        <v>5953</v>
       </c>
       <c r="G18" t="n">
-        <v>1898</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="19">
@@ -872,16 +872,16 @@
         <v>8192</v>
       </c>
       <c r="D19" t="n">
-        <v>8105</v>
+        <v>6668</v>
       </c>
       <c r="E19" t="n">
-        <v>7397</v>
+        <v>7876</v>
       </c>
       <c r="F19" t="n">
-        <v>6153</v>
+        <v>4093</v>
       </c>
       <c r="G19" t="n">
-        <v>2685</v>
+        <v>994</v>
       </c>
     </row>
     <row r="20">
@@ -895,16 +895,16 @@
         <v>8192</v>
       </c>
       <c r="D20" t="n">
-        <v>8192</v>
+        <v>8182</v>
       </c>
       <c r="E20" t="n">
-        <v>7681</v>
+        <v>6552</v>
       </c>
       <c r="F20" t="n">
-        <v>4094</v>
+        <v>3965</v>
       </c>
       <c r="G20" t="n">
-        <v>2002</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21">
@@ -918,16 +918,16 @@
         <v>8192</v>
       </c>
       <c r="D21" t="n">
-        <v>8199</v>
+        <v>8196</v>
       </c>
       <c r="E21" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="F21" t="n">
-        <v>3954</v>
+        <v>8261</v>
       </c>
       <c r="G21" t="n">
-        <v>1902</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="22">
@@ -944,13 +944,13 @@
         <v>8192</v>
       </c>
       <c r="E22" t="n">
-        <v>8208</v>
+        <v>8209</v>
       </c>
       <c r="F22" t="n">
-        <v>6230</v>
+        <v>4080</v>
       </c>
       <c r="G22" t="n">
-        <v>1976</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="23">
@@ -964,16 +964,16 @@
         <v>8192</v>
       </c>
       <c r="D23" t="n">
-        <v>8204</v>
+        <v>8201</v>
       </c>
       <c r="E23" t="n">
-        <v>7680</v>
+        <v>8192</v>
       </c>
       <c r="F23" t="n">
-        <v>6358</v>
+        <v>6089</v>
       </c>
       <c r="G23" t="n">
-        <v>2911</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="24">
@@ -987,16 +987,16 @@
         <v>8192</v>
       </c>
       <c r="D24" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E24" t="n">
-        <v>6566</v>
+        <v>8200</v>
       </c>
       <c r="F24" t="n">
-        <v>6185</v>
+        <v>6236</v>
       </c>
       <c r="G24" t="n">
-        <v>1526</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="25">
@@ -1013,13 +1013,13 @@
         <v>8192</v>
       </c>
       <c r="E25" t="n">
-        <v>7612</v>
+        <v>8192</v>
       </c>
       <c r="F25" t="n">
-        <v>6005</v>
+        <v>6138</v>
       </c>
       <c r="G25" t="n">
-        <v>994</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="26">
@@ -1033,16 +1033,16 @@
         <v>8192</v>
       </c>
       <c r="D26" t="n">
-        <v>7231</v>
+        <v>8196</v>
       </c>
       <c r="E26" t="n">
-        <v>7619</v>
+        <v>8198</v>
       </c>
       <c r="F26" t="n">
-        <v>6304</v>
+        <v>3946</v>
       </c>
       <c r="G26" t="n">
-        <v>962</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="27">
@@ -1056,16 +1056,16 @@
         <v>8192</v>
       </c>
       <c r="D27" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="E27" t="n">
-        <v>8204</v>
+        <v>7050</v>
       </c>
       <c r="F27" t="n">
-        <v>5880</v>
+        <v>5980</v>
       </c>
       <c r="G27" t="n">
-        <v>1732</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="28">
@@ -1079,16 +1079,16 @@
         <v>8192</v>
       </c>
       <c r="D28" t="n">
-        <v>8192</v>
+        <v>7425</v>
       </c>
       <c r="E28" t="n">
-        <v>8192</v>
+        <v>6371</v>
       </c>
       <c r="F28" t="n">
-        <v>6083</v>
+        <v>6490</v>
       </c>
       <c r="G28" t="n">
-        <v>1946</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="29">
@@ -1105,13 +1105,13 @@
         <v>8192</v>
       </c>
       <c r="E29" t="n">
-        <v>8230</v>
+        <v>8050</v>
       </c>
       <c r="F29" t="n">
-        <v>6657</v>
+        <v>6113</v>
       </c>
       <c r="G29" t="n">
-        <v>1933</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="30">
@@ -1125,16 +1125,16 @@
         <v>8192</v>
       </c>
       <c r="D30" t="n">
-        <v>8204</v>
+        <v>8192</v>
       </c>
       <c r="E30" t="n">
-        <v>8232</v>
+        <v>8216</v>
       </c>
       <c r="F30" t="n">
-        <v>6132</v>
+        <v>6076</v>
       </c>
       <c r="G30" t="n">
-        <v>1014</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="31">
@@ -1148,16 +1148,16 @@
         <v>8192</v>
       </c>
       <c r="D31" t="n">
-        <v>8192</v>
+        <v>6747</v>
       </c>
       <c r="E31" t="n">
         <v>8192</v>
       </c>
       <c r="F31" t="n">
-        <v>4094</v>
+        <v>5634</v>
       </c>
       <c r="G31" t="n">
-        <v>1952</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>8192</v>
       </c>
       <c r="D32" t="n">
-        <v>7365</v>
+        <v>8192</v>
       </c>
       <c r="E32" t="n">
-        <v>7092</v>
+        <v>8192</v>
       </c>
       <c r="F32" t="n">
-        <v>6057</v>
+        <v>6076</v>
       </c>
       <c r="G32" t="n">
-        <v>1846</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="33">
@@ -1194,16 +1194,16 @@
         <v>8192</v>
       </c>
       <c r="D33" t="n">
-        <v>8053</v>
+        <v>8192</v>
       </c>
       <c r="E33" t="n">
-        <v>6557</v>
+        <v>8069</v>
       </c>
       <c r="F33" t="n">
-        <v>6416</v>
+        <v>6648</v>
       </c>
       <c r="G33" t="n">
-        <v>1507</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="34">
@@ -1217,16 +1217,16 @@
         <v>8192</v>
       </c>
       <c r="D34" t="n">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="E34" t="n">
-        <v>8158</v>
+        <v>8216</v>
       </c>
       <c r="F34" t="n">
-        <v>6308</v>
+        <v>6000</v>
       </c>
       <c r="G34" t="n">
-        <v>3570</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="35">
@@ -1240,16 +1240,16 @@
         <v>8192</v>
       </c>
       <c r="D35" t="n">
-        <v>8192</v>
+        <v>8055</v>
       </c>
       <c r="E35" t="n">
-        <v>7512</v>
+        <v>8200</v>
       </c>
       <c r="F35" t="n">
-        <v>6232</v>
+        <v>4090</v>
       </c>
       <c r="G35" t="n">
-        <v>1529</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="36">
@@ -1263,16 +1263,16 @@
         <v>8192</v>
       </c>
       <c r="D36" t="n">
-        <v>8204</v>
+        <v>7028</v>
       </c>
       <c r="E36" t="n">
-        <v>8192</v>
+        <v>7916</v>
       </c>
       <c r="F36" t="n">
-        <v>6655</v>
+        <v>6121</v>
       </c>
       <c r="G36" t="n">
-        <v>1492</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="37">
@@ -1286,16 +1286,16 @@
         <v>8192</v>
       </c>
       <c r="D37" t="n">
-        <v>8195</v>
+        <v>8192</v>
       </c>
       <c r="E37" t="n">
-        <v>7419</v>
+        <v>8192</v>
       </c>
       <c r="F37" t="n">
-        <v>5634</v>
+        <v>6086</v>
       </c>
       <c r="G37" t="n">
-        <v>3312</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="38">
@@ -1309,16 +1309,16 @@
         <v>8192</v>
       </c>
       <c r="D38" t="n">
-        <v>8192</v>
+        <v>6834</v>
       </c>
       <c r="E38" t="n">
-        <v>8034</v>
+        <v>8192</v>
       </c>
       <c r="F38" t="n">
-        <v>6339</v>
+        <v>6117</v>
       </c>
       <c r="G38" t="n">
-        <v>1762</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39">
@@ -1332,16 +1332,16 @@
         <v>8192</v>
       </c>
       <c r="D39" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E39" t="n">
-        <v>8198</v>
+        <v>6398</v>
       </c>
       <c r="F39" t="n">
-        <v>6195</v>
+        <v>6071</v>
       </c>
       <c r="G39" t="n">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="40">
@@ -1355,16 +1355,16 @@
         <v>8192</v>
       </c>
       <c r="D40" t="n">
-        <v>7956</v>
+        <v>8192</v>
       </c>
       <c r="E40" t="n">
-        <v>8192</v>
+        <v>8224</v>
       </c>
       <c r="F40" t="n">
-        <v>5632</v>
+        <v>6097</v>
       </c>
       <c r="G40" t="n">
-        <v>1852</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="41">
@@ -1378,16 +1378,16 @@
         <v>8192</v>
       </c>
       <c r="D41" t="n">
-        <v>8202</v>
+        <v>8195</v>
       </c>
       <c r="E41" t="n">
-        <v>8192</v>
+        <v>8205</v>
       </c>
       <c r="F41" t="n">
-        <v>4093</v>
+        <v>8258</v>
       </c>
       <c r="G41" t="n">
-        <v>1531</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="42">
@@ -1401,16 +1401,16 @@
         <v>8192</v>
       </c>
       <c r="D42" t="n">
-        <v>8192</v>
+        <v>7672</v>
       </c>
       <c r="E42" t="n">
-        <v>6452</v>
+        <v>8215</v>
       </c>
       <c r="F42" t="n">
-        <v>5885</v>
+        <v>6112</v>
       </c>
       <c r="G42" t="n">
-        <v>1825</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43">
@@ -1427,13 +1427,13 @@
         <v>8192</v>
       </c>
       <c r="E43" t="n">
-        <v>8192</v>
+        <v>7572</v>
       </c>
       <c r="F43" t="n">
-        <v>6196</v>
+        <v>6332</v>
       </c>
       <c r="G43" t="n">
-        <v>1755</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="44">
@@ -1447,16 +1447,16 @@
         <v>8192</v>
       </c>
       <c r="D44" t="n">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="E44" t="n">
-        <v>8192</v>
+        <v>7882</v>
       </c>
       <c r="F44" t="n">
-        <v>6237</v>
+        <v>4078</v>
       </c>
       <c r="G44" t="n">
-        <v>2774</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="45">
@@ -1470,16 +1470,16 @@
         <v>8192</v>
       </c>
       <c r="D45" t="n">
-        <v>6975</v>
+        <v>8202</v>
       </c>
       <c r="E45" t="n">
-        <v>8224</v>
+        <v>8192</v>
       </c>
       <c r="F45" t="n">
-        <v>8450</v>
+        <v>4081</v>
       </c>
       <c r="G45" t="n">
-        <v>2858</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="46">
@@ -1493,16 +1493,16 @@
         <v>8192</v>
       </c>
       <c r="D46" t="n">
-        <v>8214</v>
+        <v>8201</v>
       </c>
       <c r="E46" t="n">
         <v>8192</v>
       </c>
       <c r="F46" t="n">
-        <v>6179</v>
+        <v>6283</v>
       </c>
       <c r="G46" t="n">
-        <v>1475</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="47">
@@ -1516,16 +1516,16 @@
         <v>8192</v>
       </c>
       <c r="D47" t="n">
-        <v>7351</v>
+        <v>8202</v>
       </c>
       <c r="E47" t="n">
-        <v>7042</v>
+        <v>8221</v>
       </c>
       <c r="F47" t="n">
-        <v>6343</v>
+        <v>5890</v>
       </c>
       <c r="G47" t="n">
-        <v>2500</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="48">
@@ -1539,16 +1539,16 @@
         <v>8192</v>
       </c>
       <c r="D48" t="n">
-        <v>8203</v>
+        <v>8202</v>
       </c>
       <c r="E48" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F48" t="n">
-        <v>6443</v>
+        <v>6221</v>
       </c>
       <c r="G48" t="n">
-        <v>1784</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="49">
@@ -1562,16 +1562,16 @@
         <v>8192</v>
       </c>
       <c r="D49" t="n">
-        <v>8194</v>
+        <v>8200</v>
       </c>
       <c r="E49" t="n">
-        <v>7597</v>
+        <v>8188</v>
       </c>
       <c r="F49" t="n">
-        <v>8271</v>
+        <v>8269</v>
       </c>
       <c r="G49" t="n">
-        <v>1528</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="50">
@@ -1585,16 +1585,16 @@
         <v>8192</v>
       </c>
       <c r="D50" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E50" t="n">
-        <v>8192</v>
+        <v>7164</v>
       </c>
       <c r="F50" t="n">
-        <v>4029</v>
+        <v>6242</v>
       </c>
       <c r="G50" t="n">
-        <v>964</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="51">
@@ -1614,10 +1614,10 @@
         <v>8192</v>
       </c>
       <c r="F51" t="n">
-        <v>8400</v>
+        <v>5603</v>
       </c>
       <c r="G51" t="n">
-        <v>2927</v>
+        <v>1761</v>
       </c>
     </row>
   </sheetData>
